--- a/ISA_Assembler/inst bit.xlsx
+++ b/ISA_Assembler/inst bit.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oran\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5178B784-8A68-49C2-8D03-F2079AFB1782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEA7118-CD3C-4F87-9FE0-F6F5B92E3C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{54775469-184B-4713-A352-052BC36EC0C3}"/>
+    <workbookView xWindow="4836" yWindow="3300" windowWidth="12804" windowHeight="12120" xr2:uid="{54775469-184B-4713-A352-052BC36EC0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="156">
   <si>
     <t>rs2</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -517,6 +518,142 @@
   </si>
   <si>
     <t>0001111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템, 연산 x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연산 x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump는 ex 단계 가지 않고 계산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">exe 관련 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단순</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exe X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex 가면 늦음 디코더에서 점프인지 인지하면 바로 ?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+단순)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memread</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memwrite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regwrite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>atomic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>divide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aluop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,85 +821,88 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="5" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="9" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="8" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="10" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="0" xfId="11" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="5" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="9" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="8" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="10" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="0" xfId="11" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1109,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA547EF-990D-4E6F-8AB2-104C70130103}">
-  <dimension ref="B2:K78"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1121,261 +1261,443 @@
     <col min="5" max="5" width="8.09765625" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="12.19921875" customWidth="1"/>
+    <col min="9" max="9" width="18.19921875" customWidth="1"/>
     <col min="10" max="10" width="41.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="M1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="D2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="14" t="s">
+      <c r="I2" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="O2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="14" t="s">
+      <c r="I3" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="O3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="14" t="s">
+      <c r="I4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="O4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="D5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="14" t="s">
+      <c r="I5" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="O5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="14" t="s">
+      <c r="I6" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="O6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="15" t="s">
+      <c r="D7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="14" t="s">
+      <c r="I7" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="O7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="D8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="15" t="s">
+      <c r="G8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="14" t="s">
+      <c r="I8" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="O8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="D9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="15" t="s">
+      <c r="G9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="14" t="s">
+      <c r="I9" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="O9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="D10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="14" t="s">
+      <c r="I10" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="O10" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="D11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="15" t="s">
+      <c r="G11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="14" t="s">
+      <c r="I11" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="O11" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="15" t="s">
+      <c r="D12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I12" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="28"/>
+      <c r="M13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="28"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>4</v>
@@ -1395,12 +1717,21 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="M14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="28" t="s">
+        <v>143</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1418,12 +1749,24 @@
       <c r="H15" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="28" t="s">
+        <v>145</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1441,12 +1784,24 @@
       <c r="H16" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I16" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="28" t="s">
+        <v>146</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1464,8 +1819,15 @@
       <c r="H17" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="28"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1473,13 +1835,17 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="M18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="28"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1492,15 +1858,21 @@
       <c r="H19" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="M19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="28" t="s">
+        <v>141</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1513,15 +1885,24 @@
       <c r="H20" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I20" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="28" t="s">
+        <v>148</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1534,15 +1915,24 @@
       <c r="H21" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="28" t="s">
+        <v>147</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="3" t="s">
         <v>17</v>
       </c>
@@ -1555,15 +1945,24 @@
       <c r="H22" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" s="28" t="s">
+        <v>144</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1576,15 +1975,24 @@
       <c r="H23" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I23" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" s="28" t="s">
+        <v>142</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
@@ -1597,15 +2005,24 @@
       <c r="H24" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I24" t="s">
+        <v>127</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" s="28" t="s">
+        <v>142</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="3" t="s">
         <v>17</v>
       </c>
@@ -1618,8 +2035,15 @@
       <c r="H25" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I25" t="s">
+        <v>127</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="28"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1627,15 +2051,19 @@
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="M26" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="28"/>
       <c r="B27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="3" t="s">
         <v>17</v>
       </c>
@@ -1648,15 +2076,22 @@
       <c r="H27" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I27" t="s">
+        <v>128</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="28"/>
       <c r="B28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="3" t="s">
         <v>17</v>
       </c>
@@ -1669,69 +2104,103 @@
       <c r="H28" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I28" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" t="s">
+        <v>125</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" s="28"/>
       <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
       <c r="G29" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
+      <c r="I29" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" t="s">
+        <v>130</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" s="28"/>
+      <c r="M30" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" s="28"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="D31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="7" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" s="28"/>
+      <c r="B32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="D32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="28"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="28"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>48</v>
@@ -1752,7 +2221,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="28"/>
       <c r="B35" s="1" t="s">
         <v>50</v>
       </c>
@@ -1774,8 +2244,12 @@
       <c r="H35" s="1">
         <v>1100011</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="28"/>
       <c r="B36" s="1" t="s">
         <v>51</v>
       </c>
@@ -1797,8 +2271,12 @@
       <c r="H36" s="1">
         <v>1100011</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="28"/>
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -1820,8 +2298,12 @@
       <c r="H37" s="1">
         <v>1100011</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="28"/>
       <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
@@ -1843,8 +2325,12 @@
       <c r="H38" s="1">
         <v>1100011</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="28"/>
       <c r="B39" s="1" t="s">
         <v>54</v>
       </c>
@@ -1866,8 +2352,12 @@
       <c r="H39" s="1">
         <v>1100011</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="28"/>
       <c r="B40" s="1" t="s">
         <v>55</v>
       </c>
@@ -1889,732 +2379,882 @@
       <c r="H40" s="1">
         <v>1100011</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B42" s="17"/>
-      <c r="C42" s="18" t="s">
+      <c r="I40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="28"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="28"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="17" t="s">
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="17" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="19" t="s">
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="17" t="s">
+      <c r="I43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="19" t="s">
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B46" s="20" t="s">
+      <c r="I44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="28"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="28"/>
+      <c r="B46" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22" t="s">
+      <c r="D46" s="31"/>
+      <c r="E46" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H46" s="19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B47" s="20" t="s">
+      <c r="I46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="28"/>
+      <c r="B47" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22" t="s">
+      <c r="D47" s="31"/>
+      <c r="E47" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B49" s="23"/>
-      <c r="C49" s="23" t="s">
+      <c r="I47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="28"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" s="28"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="23" t="s">
+      <c r="D49" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="23" t="s">
+      <c r="G49" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="23" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="24" t="s">
+      <c r="D50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="24" t="s">
+      <c r="G50" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B51" s="23" t="s">
+      <c r="I50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="24" t="s">
+      <c r="D51" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="24" t="s">
+      <c r="G51" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B52" s="23" t="s">
+      <c r="I51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" s="24" t="s">
+      <c r="D52" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="24" t="s">
+      <c r="G52" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B53" s="23" t="s">
+      <c r="I52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="24" t="s">
+      <c r="D53" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="24" t="s">
+      <c r="G53" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B54" s="23" t="s">
+      <c r="I53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="24" t="s">
+      <c r="D54" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H54" s="24" t="s">
+      <c r="G54" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B55" s="23" t="s">
+      <c r="I54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="24" t="s">
+      <c r="D55" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G55" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="24" t="s">
+      <c r="G55" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B56" s="23" t="s">
+      <c r="I55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="24" t="s">
+      <c r="D56" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="24" t="s">
+      <c r="G56" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B57" s="23" t="s">
+      <c r="I56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="24" t="s">
+      <c r="D57" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="24" t="s">
+      <c r="G57" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B59" s="10" t="s">
+      <c r="I57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" s="28"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="28"/>
+      <c r="B59" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="11" t="s">
+      <c r="D59" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G59" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="11" t="s">
+      <c r="G59" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I59" s="10"/>
-      <c r="J59" s="12" t="s">
+      <c r="I59" t="s">
+        <v>122</v>
+      </c>
+      <c r="J59" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K59" s="13" t="s">
+      <c r="K59" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B60" s="10" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="28"/>
+      <c r="B60" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="11" t="s">
+      <c r="D60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G60" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H60" s="11" t="s">
+      <c r="G60" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I60" s="10"/>
-      <c r="J60" s="12" t="s">
+      <c r="I60" t="s">
+        <v>122</v>
+      </c>
+      <c r="J60" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="K60" s="13" t="s">
+      <c r="K60" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B61" s="10" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="28"/>
+      <c r="B61" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="11" t="s">
+      <c r="D61" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G61" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="11" t="s">
+      <c r="G61" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I61" s="10"/>
-      <c r="J61" s="12" t="s">
+      <c r="I61" t="s">
+        <v>122</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K61" s="13" t="s">
+      <c r="K61" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B62" s="10" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" s="28"/>
+      <c r="B62" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="11" t="s">
+      <c r="D62" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G62" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="11" t="s">
+      <c r="G62" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I62" s="10"/>
-      <c r="J62" s="12" t="s">
+      <c r="I62" t="s">
+        <v>122</v>
+      </c>
+      <c r="J62" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="K62" s="13" t="s">
+      <c r="K62" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B63" s="10" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="28"/>
+      <c r="B63" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="11" t="s">
+      <c r="D63" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="11" t="s">
+      <c r="G63" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I63" s="10"/>
-      <c r="J63" s="12" t="s">
+      <c r="I63" t="s">
+        <v>122</v>
+      </c>
+      <c r="J63" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K63" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B64" s="10" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64" s="28"/>
+      <c r="B64" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D64" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="11" t="s">
+      <c r="D64" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G64" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="11" t="s">
+      <c r="G64" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I64" s="10"/>
-      <c r="J64" s="12" t="s">
+      <c r="I64" t="s">
+        <v>122</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K64" s="12">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B65" s="10" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A65" s="28"/>
+      <c r="B65" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="11" t="s">
+      <c r="D65" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G65" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="11" t="s">
+      <c r="G65" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I65" s="10"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B66" s="10" t="s">
+      <c r="I65" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A66" s="28"/>
+      <c r="B66" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="11" t="s">
+      <c r="D66" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G66" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66" s="11" t="s">
+      <c r="G66" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I66" s="10"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B67" s="10"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="10"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B68" s="10" t="s">
+      <c r="I66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A67" s="28"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A68" s="28"/>
+      <c r="B68" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="11" t="s">
+      <c r="E68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H68" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I68" s="11" t="s">
+      <c r="H68" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I68" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B70" s="25" t="s">
+      <c r="J68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A69" s="28"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A70" s="28"/>
+      <c r="B70" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E70" s="26" t="s">
+      <c r="E70" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F70" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G70" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" s="26" t="s">
+      <c r="F70" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I70" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J70" s="26" t="s">
+      <c r="I70" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J70" s="23" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B71" s="25" t="s">
+      <c r="K70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A71" s="28"/>
+      <c r="B71" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E71" s="26" t="s">
+      <c r="E71" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F71" s="26" t="s">
+      <c r="F71" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G71" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" s="26" t="s">
+      <c r="G71" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I71" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J71" s="26" t="s">
+      <c r="I71" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J71" s="23" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B72" s="25" t="s">
+      <c r="K71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A72" s="28"/>
+      <c r="B72" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E72" s="26" t="s">
+      <c r="E72" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F72" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G72" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" s="26" t="s">
+      <c r="F72" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I72" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J72" s="27" t="s">
+      <c r="I72" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J72" s="24" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B74" s="8" t="s">
+      <c r="K72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A73" s="28"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A74" s="28"/>
+      <c r="B74" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" s="9" t="s">
+      <c r="D74" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G74" s="8">
+      <c r="F74" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74" s="7">
         <v>1110011</v>
       </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B75" s="8" t="s">
+      <c r="H74" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A75" s="28"/>
+      <c r="B75" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="9" t="s">
+      <c r="D75" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="8">
+      <c r="F75" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="7">
         <v>1110011</v>
       </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B76" s="8" t="s">
+      <c r="H75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A76" s="28"/>
+      <c r="B76" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" s="9" t="s">
+      <c r="D76" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G76" s="8">
+      <c r="F76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="7">
         <v>1110011</v>
       </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B78" s="28" t="s">
+      <c r="H76" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A77" s="28"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A78" s="28"/>
+      <c r="B78" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D78" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="E78" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F78" s="29" t="s">
+      <c r="F78" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G78" s="30" t="s">
+      <c r="G78" s="27" t="s">
         <v>121</v>
+      </c>
+      <c r="H78" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2641,4 +3281,301 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F450498-6D00-4CA8-8FB8-69E396AD02D1}">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ISA_Assembler/inst bit.xlsx
+++ b/ISA_Assembler/inst bit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oran\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEA7118-CD3C-4F87-9FE0-F6F5B92E3C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B24342-CE43-4A54-869C-152BD52279C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4836" yWindow="3300" windowWidth="12804" windowHeight="12120" xr2:uid="{54775469-184B-4713-A352-052BC36EC0C3}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="10968" windowHeight="16656" xr2:uid="{54775469-184B-4713-A352-052BC36EC0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="154">
   <si>
     <t>rs2</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -597,63 +597,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1110</t>
+    <t>00100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11110</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1251,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA547EF-990D-4E6F-8AB2-104C70130103}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1314,7 +1306,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="28" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>5</v>
@@ -1352,7 +1344,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="28" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>6</v>
@@ -1390,7 +1382,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="28" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>10</v>
@@ -1428,7 +1420,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="28" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>13</v>
@@ -1466,7 +1458,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="28" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>14</v>
@@ -1504,7 +1496,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="28" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>9</v>
@@ -1542,7 +1534,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>11</v>
@@ -1580,7 +1572,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>12</v>
@@ -1616,7 +1608,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>8</v>
@@ -1654,7 +1646,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>7</v>
@@ -1726,7 +1718,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="28" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>33</v>
@@ -1761,7 +1753,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>34</v>
@@ -1796,7 +1788,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>35</v>
@@ -1864,7 +1856,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="28" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>29</v>
@@ -1894,7 +1886,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>30</v>
@@ -1924,7 +1916,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>31</v>
@@ -1954,7 +1946,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="28" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>32</v>
@@ -1984,7 +1976,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="28" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -2014,7 +2006,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="28" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -2404,7 +2396,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="28" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>60</v>
@@ -2427,7 +2419,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="28" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>61</v>
@@ -2528,7 +2520,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>72</v>
@@ -2557,7 +2549,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>73</v>
@@ -2586,7 +2578,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>74</v>
@@ -2615,7 +2607,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="28" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>75</v>
@@ -2644,7 +2636,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>76</v>
@@ -2673,7 +2665,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>77</v>
@@ -2702,7 +2694,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>78</v>
@@ -2731,7 +2723,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>79</v>

--- a/ISA_Assembler/inst bit.xlsx
+++ b/ISA_Assembler/inst bit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oran\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B24342-CE43-4A54-869C-152BD52279C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4269B49-CEE0-423B-AB5E-C381D3483B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="10968" windowHeight="16656" xr2:uid="{54775469-184B-4713-A352-052BC36EC0C3}"/>
+    <workbookView xWindow="4140" yWindow="1788" windowWidth="12804" windowHeight="12120" xr2:uid="{54775469-184B-4713-A352-052BC36EC0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="155">
   <si>
     <t>rs2</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -646,6 +646,10 @@
   </si>
   <si>
     <t>11110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -887,10 +891,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
@@ -1243,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA547EF-990D-4E6F-8AB2-104C70130103}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1458,7 +1462,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="28" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>14</v>
@@ -1834,10 +1838,10 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="28"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1861,10 +1865,10 @@
       <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1891,10 +1895,10 @@
       <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1921,10 +1925,10 @@
       <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="3" t="s">
         <v>17</v>
       </c>
@@ -1951,10 +1955,10 @@
       <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1981,10 +1985,10 @@
       <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
@@ -2006,15 +2010,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="28" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="3" t="s">
         <v>17</v>
       </c>
@@ -2052,10 +2056,10 @@
       <c r="B27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="3" t="s">
         <v>17</v>
       </c>
@@ -2080,10 +2084,10 @@
       <c r="B28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="3" t="s">
         <v>17</v>
       </c>
@@ -2111,12 +2115,12 @@
       <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
       <c r="G29" s="3" t="s">
         <v>2</v>
       </c>
@@ -2381,12 +2385,12 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="28"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
       <c r="G42" s="16" t="s">
         <v>2</v>
       </c>
@@ -2401,12 +2405,12 @@
       <c r="B43" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
       <c r="G43" s="16" t="s">
         <v>2</v>
       </c>
@@ -2424,12 +2428,12 @@
       <c r="B44" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
       <c r="G44" s="16" t="s">
         <v>2</v>
       </c>
@@ -3254,6 +3258,11 @@
     <sortCondition ref="F3:F12"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C44:F44"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C46:D46"/>
@@ -3264,11 +3273,6 @@
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ISA_Assembler/inst bit.xlsx
+++ b/ISA_Assembler/inst bit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oran\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4269B49-CEE0-423B-AB5E-C381D3483B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEFA146-8B6F-4903-814D-491DE9ABF08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1788" windowWidth="12804" windowHeight="12120" xr2:uid="{54775469-184B-4713-A352-052BC36EC0C3}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="13248" windowHeight="16656" xr2:uid="{54775469-184B-4713-A352-052BC36EC0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="179">
   <si>
     <t>rs2</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -549,10 +549,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>exe X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ex 가면 늦음 디코더에서 점프인지 인지하면 바로 ?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -650,6 +646,106 @@
   </si>
   <si>
     <t>01001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복합 + decoder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111011</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1247,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA547EF-990D-4E6F-8AB2-104C70130103}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1274,7 +1370,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
@@ -1424,7 +1520,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>13</v>
@@ -1462,7 +1558,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>14</v>
@@ -1538,7 +1634,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>11</v>
@@ -1576,7 +1672,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>12</v>
@@ -1612,7 +1708,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>8</v>
@@ -1650,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>7</v>
@@ -1757,7 +1853,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>34</v>
@@ -1787,12 +1883,12 @@
         <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>35</v>
@@ -1890,7 +1986,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>30</v>
@@ -1920,7 +2016,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>31</v>
@@ -1980,7 +2076,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -2010,7 +2106,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -2052,7 +2148,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="28"/>
+      <c r="A27" s="28" t="s">
+        <v>155</v>
+      </c>
       <c r="B27" s="3" t="s">
         <v>38</v>
       </c>
@@ -2080,7 +2178,9 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28" s="28"/>
+      <c r="A28" s="28" t="s">
+        <v>156</v>
+      </c>
       <c r="B28" s="3" t="s">
         <v>39</v>
       </c>
@@ -2101,7 +2201,7 @@
         <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="J28" t="s">
         <v>125</v>
@@ -2111,7 +2211,9 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" s="28"/>
+      <c r="A29" s="28" t="s">
+        <v>157</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
@@ -2128,10 +2230,10 @@
         <v>64</v>
       </c>
       <c r="I29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J29" t="s">
         <v>129</v>
-      </c>
-      <c r="J29" t="s">
-        <v>130</v>
       </c>
       <c r="M29" s="20" t="s">
         <v>78</v>
@@ -2166,7 +2268,9 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A32" s="28"/>
+      <c r="A32" s="28" t="s">
+        <v>158</v>
+      </c>
       <c r="B32" s="6" t="s">
         <v>46</v>
       </c>
@@ -2218,7 +2322,9 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="28"/>
+      <c r="A35" s="28" t="s">
+        <v>162</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
       </c>
@@ -2245,7 +2351,9 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="28"/>
+      <c r="A36" s="28" t="s">
+        <v>163</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>51</v>
       </c>
@@ -2272,7 +2380,9 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="28"/>
+      <c r="A37" s="28" t="s">
+        <v>164</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2299,7 +2409,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="28"/>
+      <c r="A38" s="28" t="s">
+        <v>165</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
@@ -2326,7 +2438,9 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="28"/>
+      <c r="A39" s="28" t="s">
+        <v>166</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>54</v>
       </c>
@@ -2353,7 +2467,9 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="28"/>
+      <c r="A40" s="28" t="s">
+        <v>167</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>55</v>
       </c>
@@ -2524,7 +2640,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>72</v>
@@ -2553,7 +2669,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>73</v>
@@ -2582,7 +2698,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>74</v>
@@ -2611,7 +2727,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>75</v>
@@ -2640,7 +2756,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>76</v>
@@ -2669,7 +2785,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>77</v>
@@ -2698,7 +2814,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>78</v>
@@ -2727,7 +2843,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>79</v>
@@ -2758,7 +2874,9 @@
       <c r="A58" s="28"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A59" s="28"/>
+      <c r="A59" s="28" t="s">
+        <v>171</v>
+      </c>
       <c r="B59" s="9" t="s">
         <v>80</v>
       </c>
@@ -2791,7 +2909,9 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A60" s="28"/>
+      <c r="A60" s="28" t="s">
+        <v>172</v>
+      </c>
       <c r="B60" s="9" t="s">
         <v>81</v>
       </c>
@@ -2824,7 +2944,9 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A61" s="28"/>
+      <c r="A61" s="28" t="s">
+        <v>173</v>
+      </c>
       <c r="B61" s="9" t="s">
         <v>82</v>
       </c>
@@ -2857,7 +2979,9 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A62" s="28"/>
+      <c r="A62" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="B62" s="9" t="s">
         <v>83</v>
       </c>
@@ -2890,7 +3014,9 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A63" s="28"/>
+      <c r="A63" s="28" t="s">
+        <v>175</v>
+      </c>
       <c r="B63" s="9" t="s">
         <v>84</v>
       </c>
@@ -2923,7 +3049,9 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A64" s="28"/>
+      <c r="A64" s="28" t="s">
+        <v>176</v>
+      </c>
       <c r="B64" s="9" t="s">
         <v>85</v>
       </c>
@@ -2956,7 +3084,9 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A65" s="28"/>
+      <c r="A65" s="28" t="s">
+        <v>177</v>
+      </c>
       <c r="B65" s="9" t="s">
         <v>87</v>
       </c>
@@ -2983,7 +3113,9 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A66" s="28"/>
+      <c r="A66" s="28" t="s">
+        <v>178</v>
+      </c>
       <c r="B66" s="9" t="s">
         <v>88</v>
       </c>
@@ -3053,7 +3185,9 @@
       <c r="A69" s="28"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A70" s="28"/>
+      <c r="A70" s="28" t="s">
+        <v>159</v>
+      </c>
       <c r="B70" s="22" t="s">
         <v>106</v>
       </c>
@@ -3086,7 +3220,9 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A71" s="28"/>
+      <c r="A71" s="28" t="s">
+        <v>160</v>
+      </c>
       <c r="B71" s="22" t="s">
         <v>107</v>
       </c>
@@ -3119,7 +3255,9 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A72" s="28"/>
+      <c r="A72" s="28" t="s">
+        <v>161</v>
+      </c>
       <c r="B72" s="22" t="s">
         <v>108</v>
       </c>
@@ -3155,7 +3293,9 @@
       <c r="A73" s="28"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A74" s="28"/>
+      <c r="A74" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="B74" s="7" t="s">
         <v>116</v>
       </c>
@@ -3179,7 +3319,9 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A75" s="28"/>
+      <c r="A75" s="28" t="s">
+        <v>169</v>
+      </c>
       <c r="B75" s="7" t="s">
         <v>117</v>
       </c>
@@ -3203,7 +3345,9 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A76" s="28"/>
+      <c r="A76" s="28" t="s">
+        <v>170</v>
+      </c>
       <c r="B76" s="7" t="s">
         <v>118</v>
       </c>
@@ -3281,10 +3425,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F450498-6D00-4CA8-8FB8-69E396AD02D1}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3310,34 +3454,34 @@
         <v>3</v>
       </c>
       <c r="I1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>138</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>72</v>
       </c>
       <c r="Q1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -3362,6 +3506,36 @@
       <c r="G2" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
@@ -3385,6 +3559,36 @@
       <c r="G3" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
@@ -3408,6 +3612,36 @@
       <c r="G4" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
@@ -3431,6 +3665,36 @@
       <c r="G5" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
@@ -3454,6 +3718,36 @@
       <c r="G6" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
@@ -3477,6 +3771,36 @@
       <c r="G7" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="13" t="s">
@@ -3500,6 +3824,36 @@
       <c r="G8" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
@@ -3523,6 +3877,36 @@
       <c r="G9" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="13" t="s">
@@ -3546,6 +3930,36 @@
       <c r="G10" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="13" t="s">
@@ -3569,8 +3983,1031 @@
       <c r="G11" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A21" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A23" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A24" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A25" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A26" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A27" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A28" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A29" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A30" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30" s="28" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ISA_Assembler/inst bit.xlsx
+++ b/ISA_Assembler/inst bit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oran\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEFA146-8B6F-4903-814D-491DE9ABF08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E9A24F-5478-45C9-BF9E-A031E5C7D26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="13248" windowHeight="16656" xr2:uid="{54775469-184B-4713-A352-052BC36EC0C3}"/>
+    <workbookView xWindow="11424" yWindow="4836" windowWidth="12804" windowHeight="11724" xr2:uid="{54775469-184B-4713-A352-052BC36EC0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="176">
   <si>
     <t>rs2</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -395,19 +395,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rs3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>rm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000011</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -987,10 +975,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
@@ -1343,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA547EF-990D-4E6F-8AB2-104C70130103}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="B68:I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1359,18 +1347,18 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
@@ -1392,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>5</v>
@@ -1430,7 +1418,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>6</v>
@@ -1444,7 +1432,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>6</v>
@@ -1468,7 +1456,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>10</v>
@@ -1482,7 +1470,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>10</v>
@@ -1506,7 +1494,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>13</v>
@@ -1520,7 +1508,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>13</v>
@@ -1544,7 +1532,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>14</v>
@@ -1558,7 +1546,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>14</v>
@@ -1582,7 +1570,7 @@
         <v>26</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>9</v>
@@ -1596,7 +1584,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>9</v>
@@ -1620,7 +1608,7 @@
         <v>26</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>11</v>
@@ -1634,7 +1622,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>11</v>
@@ -1658,7 +1646,7 @@
         <v>26</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>12</v>
@@ -1672,7 +1660,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>12</v>
@@ -1696,19 +1684,19 @@
         <v>26</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>8</v>
@@ -1732,13 +1720,13 @@
         <v>26</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>86</v>
@@ -1746,7 +1734,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>7</v>
@@ -1770,13 +1758,13 @@
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
@@ -1785,7 +1773,7 @@
         <v>34</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
@@ -1813,12 +1801,12 @@
         <v>35</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>33</v>
@@ -1842,18 +1830,18 @@
         <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>34</v>
@@ -1877,18 +1865,18 @@
         <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>35</v>
@@ -1912,7 +1900,7 @@
         <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>31</v>
@@ -1934,10 +1922,10 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="28"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="30"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1961,10 +1949,10 @@
       <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="30"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1978,7 +1966,7 @@
         <v>40</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>37</v>
@@ -1986,15 +1974,15 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="30"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="3" t="s">
         <v>17</v>
       </c>
@@ -2008,7 +1996,7 @@
         <v>40</v>
       </c>
       <c r="I21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M21" s="16" t="s">
         <v>60</v>
@@ -2016,15 +2004,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="30"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="3" t="s">
         <v>17</v>
       </c>
@@ -2038,7 +2026,7 @@
         <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M22" s="16" t="s">
         <v>61</v>
@@ -2046,15 +2034,15 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="3" t="s">
         <v>17</v>
       </c>
@@ -2068,7 +2056,7 @@
         <v>40</v>
       </c>
       <c r="I23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M23" s="20" t="s">
         <v>72</v>
@@ -2076,15 +2064,15 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
@@ -2098,7 +2086,7 @@
         <v>40</v>
       </c>
       <c r="I24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M24" s="20" t="s">
         <v>73</v>
@@ -2106,15 +2094,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="30"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="3" t="s">
         <v>17</v>
       </c>
@@ -2128,7 +2116,7 @@
         <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M25" s="20" t="s">
         <v>74</v>
@@ -2149,15 +2137,15 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="30"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="3" t="s">
         <v>17</v>
       </c>
@@ -2171,7 +2159,7 @@
         <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M27" s="20" t="s">
         <v>76</v>
@@ -2179,15 +2167,15 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="30"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="3" t="s">
         <v>17</v>
       </c>
@@ -2201,10 +2189,10 @@
         <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M28" s="20" t="s">
         <v>77</v>
@@ -2212,17 +2200,17 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
       <c r="G29" s="3" t="s">
         <v>2</v>
       </c>
@@ -2230,10 +2218,10 @@
         <v>64</v>
       </c>
       <c r="I29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M29" s="20" t="s">
         <v>78</v>
@@ -2269,7 +2257,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>46</v>
@@ -2293,7 +2281,7 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
@@ -2323,7 +2311,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
@@ -2347,12 +2335,12 @@
         <v>1100011</v>
       </c>
       <c r="I35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>51</v>
@@ -2376,12 +2364,12 @@
         <v>1100011</v>
       </c>
       <c r="I36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>52</v>
@@ -2405,12 +2393,12 @@
         <v>1100011</v>
       </c>
       <c r="I37" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>53</v>
@@ -2434,12 +2422,12 @@
         <v>1100011</v>
       </c>
       <c r="I38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>54</v>
@@ -2463,12 +2451,12 @@
         <v>1100011</v>
       </c>
       <c r="I39" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>55</v>
@@ -2492,7 +2480,7 @@
         <v>1100011</v>
       </c>
       <c r="I40" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
@@ -2501,12 +2489,12 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="28"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
       <c r="G42" s="16" t="s">
         <v>2</v>
       </c>
@@ -2521,12 +2509,12 @@
       <c r="B43" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
       <c r="G43" s="16" t="s">
         <v>2</v>
       </c>
@@ -2534,7 +2522,7 @@
         <v>58</v>
       </c>
       <c r="I43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
@@ -2544,12 +2532,12 @@
       <c r="B44" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
       <c r="G44" s="16" t="s">
         <v>2</v>
       </c>
@@ -2557,7 +2545,7 @@
         <v>59</v>
       </c>
       <c r="I44" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
@@ -2585,7 +2573,7 @@
         <v>69</v>
       </c>
       <c r="I46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -2610,7 +2598,7 @@
         <v>69</v>
       </c>
       <c r="I47" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
@@ -2640,7 +2628,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>72</v>
@@ -2664,12 +2652,12 @@
         <v>26</v>
       </c>
       <c r="I50" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>73</v>
@@ -2693,12 +2681,12 @@
         <v>26</v>
       </c>
       <c r="I51" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>74</v>
@@ -2722,12 +2710,12 @@
         <v>26</v>
       </c>
       <c r="I52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>75</v>
@@ -2751,12 +2739,12 @@
         <v>26</v>
       </c>
       <c r="I53" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>76</v>
@@ -2780,12 +2768,12 @@
         <v>26</v>
       </c>
       <c r="I54" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>77</v>
@@ -2809,12 +2797,12 @@
         <v>26</v>
       </c>
       <c r="I55" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>78</v>
@@ -2838,12 +2826,12 @@
         <v>26</v>
       </c>
       <c r="I56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>79</v>
@@ -2867,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="I57" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
@@ -2875,7 +2863,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>80</v>
@@ -2890,19 +2878,19 @@
         <v>17</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I59" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>18</v>
@@ -2910,13 +2898,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>0</v>
@@ -2925,19 +2913,19 @@
         <v>17</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I60" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K60" s="12" t="s">
         <v>22</v>
@@ -2945,13 +2933,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>0</v>
@@ -2960,19 +2948,19 @@
         <v>17</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>24</v>
@@ -2980,13 +2968,13 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="28" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>0</v>
@@ -2995,19 +2983,19 @@
         <v>17</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K62" s="12" t="s">
         <v>25</v>
@@ -3015,13 +3003,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>0</v>
@@ -3036,13 +3024,13 @@
         <v>2</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K63" s="12">
         <v>100</v>
@@ -3050,13 +3038,13 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>0</v>
@@ -3071,13 +3059,13 @@
         <v>2</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I64" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K64" s="12">
         <v>101</v>
@@ -3085,13 +3073,13 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>0</v>
@@ -3106,21 +3094,21 @@
         <v>2</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I65" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>0</v>
@@ -3135,10 +3123,10 @@
         <v>2</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I66" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
@@ -3153,32 +3141,16 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="28"/>
-      <c r="B68" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
       <c r="J68" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
@@ -3186,19 +3158,19 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F70" s="23" t="s">
         <v>0</v>
@@ -3213,27 +3185,27 @@
         <v>2</v>
       </c>
       <c r="J70" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K70" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B71" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>110</v>
-      </c>
       <c r="E71" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F71" s="23" t="s">
         <v>68</v>
@@ -3248,27 +3220,27 @@
         <v>2</v>
       </c>
       <c r="J71" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K71" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F72" s="23" t="s">
         <v>0</v>
@@ -3283,10 +3255,10 @@
         <v>2</v>
       </c>
       <c r="J72" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K72" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
@@ -3294,13 +3266,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>17</v>
@@ -3315,18 +3287,18 @@
         <v>1110011</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>17</v>
@@ -3341,18 +3313,18 @@
         <v>1110011</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>17</v>
@@ -3367,7 +3339,7 @@
         <v>1110011</v>
       </c>
       <c r="H76" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
@@ -3376,10 +3348,10 @@
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="28"/>
       <c r="B78" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D78" s="26" t="s">
         <v>68</v>
@@ -3391,10 +3363,10 @@
         <v>68</v>
       </c>
       <c r="G78" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="H78" t="s">
         <v>121</v>
-      </c>
-      <c r="H78" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3402,11 +3374,6 @@
     <sortCondition ref="F3:F12"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C44:F44"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C46:D46"/>
@@ -3417,6 +3384,11 @@
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3454,34 +3426,34 @@
         <v>3</v>
       </c>
       <c r="I1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>72</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -3587,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
@@ -3640,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -3693,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -3746,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
@@ -3799,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
@@ -3852,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
@@ -3905,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
@@ -3958,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -4011,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -4064,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
@@ -4117,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
@@ -4170,17 +4142,17 @@
         <v>0</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
@@ -4228,10 +4200,10 @@
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
@@ -4272,17 +4244,17 @@
         <v>0</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
@@ -4323,17 +4295,17 @@
         <v>0</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
@@ -4374,17 +4346,17 @@
         <v>0</v>
       </c>
       <c r="R18" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
@@ -4425,17 +4397,17 @@
         <v>0</v>
       </c>
       <c r="R19" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
@@ -4476,19 +4448,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="16" t="s">
         <v>2</v>
       </c>
@@ -4530,12 +4502,12 @@
       <c r="A22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="16" t="s">
         <v>2</v>
       </c>
@@ -4623,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="R23" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
@@ -4676,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="R24" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
@@ -4729,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="R25" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
@@ -4782,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
@@ -4835,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="R27" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
@@ -4888,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="R28" s="28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
@@ -4941,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="R29" s="28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
@@ -4994,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="R30" s="28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
